--- a/medicine/Enfance/Joe_Schreiber/Joe_Schreiber.xlsx
+++ b/medicine/Enfance/Joe_Schreiber/Joe_Schreiber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joe Schreiber, né le 1er octobre 1969 au Michigan, est un écrivain américain de science-fiction, fantasy et horreur. Il travaille également comme manipulateur en électroradiologie médicale à la faculté de médecine de l'université d'État de Pennsylvanie.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,13 +553,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Romans indépendants
-Death Troopers, Pocket, coll. « Star Wars » no 134, 2016 ((en) Death Troopers, 2009)  (ISBN 978-2-266-25602-5)
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Death Troopers, Pocket, coll. « Star Wars » no 134, 2016 ((en) Death Troopers, 2009)  (ISBN 978-2-266-25602-5)
 Moisson rouge, Pocket, coll. « Star Wars » no 135, 2016 ((en) Red Harvest, 2010)  (ISBN 978-2-266-26808-0)
-Maul : Prisonnier, Pocket, coll. « Star Wars » no 132, 2015 ((en) Maul: Lockdown, 2014)  (ISBN 978-2-266-25600-1)
-Novélisations junior
-Solo: A Star Wars Story, Hachette Jeunesse, coll. « Bibliothèque verte », 2018 ((en) Solo: A Star Wars Story, 2018)
+Maul : Prisonnier, Pocket, coll. « Star Wars » no 132, 2015 ((en) Maul: Lockdown, 2014)  (ISBN 978-2-266-25600-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joe_Schreiber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joe_Schreiber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Novélisations junior</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Solo: A Star Wars Story, Hachette Jeunesse, coll. « Bibliothèque verte », 2018 ((en) Solo: A Star Wars Story, 2018)
 Le Livre de Boba Fett, Hachette Jeunesse, coll. « Bibliothèque verte », 2023 ((en) The Book of Boba Fett, 2023)
 Série The Mandalorian
 (en) The Mandalorian, 2021
@@ -555,12 +615,80 @@
 (en) The Mandalorian Season 2, 2022
  La Quête, Hachette Jeunesse, coll. « Bibliothèque verte », 2021, trad. Julien Bétan  (ISBN 978-2-01-715386-3)
 La Jedi, Hachette Jeunesse, coll. « Bibliothèque verte », 2022, trad. Julien Bétan  (ISBN 978-2-01-715388-7)
-Le Captif, Hachette Jeunesse, coll. « Bibliothèque verte », 2022, trad. Julien Bétan  (ISBN 978-2-01-715391-7)
-Série Perry &amp; Gobi
-Bye Bye Crazy Girl, La Martinière jeunesse, 2012 ((en) Au Revoir, Crazy European Chick, 2011), trad. Yves Sarda  (ISBN 978-2-7324-4870-1)Réédité en 2014 sous le titre Pretty Deadly
-Go, Just Go, La Martinière jeunesse, 2013 ((en) Perry's Killer Playlist, 2012), trad. Yves Sarda  (ISBN 978-2-7324-4869-5)Réédité en 2015 sous le titre Pretty Lethal
-Romans indépendants
-(en) Chasing the Dead, 2006
+Le Captif, Hachette Jeunesse, coll. « Bibliothèque verte », 2022, trad. Julien Bétan  (ISBN 978-2-01-715391-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joe_Schreiber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joe_Schreiber</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Perry &amp; Gobi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bye Bye Crazy Girl, La Martinière jeunesse, 2012 ((en) Au Revoir, Crazy European Chick, 2011), trad. Yves Sarda  (ISBN 978-2-7324-4870-1)Réédité en 2014 sous le titre Pretty Deadly
+Go, Just Go, La Martinière jeunesse, 2013 ((en) Perry's Killer Playlist, 2012), trad. Yves Sarda  (ISBN 978-2-7324-4869-5)Réédité en 2015 sous le titre Pretty Lethal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joe_Schreiber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joe_Schreiber</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Chasing the Dead, 2006
 (en) Eat the Dark, 2007
 (en) No Doors, no Windows, 2009
 (en) The Unholy Cause, 2010
